--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/2_Adıyaman_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/2_Adıyaman_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA44FD4-6F06-4B8D-A043-87EE295CABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F778FAF9-9818-4AB2-A0C8-AAF52FD418B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{E9F236B6-5A3C-42CC-9950-8EEF7E5AAA7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{5D835746-876A-454C-9ABD-CF5572BD3128}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -921,14 +921,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{4095FE82-779E-4CDE-8311-71B755E9D544}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2A0D827C-047D-44F8-ADD1-2BC2D071B645}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{778D9FFB-F6EB-406B-9541-3EB8A3E4A2ED}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{A8CD3806-7D66-4B98-B4E9-22846804CA2B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{301D0381-3496-433F-9CE7-3E7CF814346E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F3DACAAA-0504-4E8E-9AA7-B56CF291B63E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{610CF11D-6DC3-48AE-AE63-BF3404D6460D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3D561BC2-4BA3-4D4D-95DB-C3D9CDF5CA77}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{90AEB6F4-A5BD-44F6-BDC7-459C156A1E1F}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DCBED955-9AB8-4F34-934E-DB3B7E7E38F2}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{5AE4134D-DA37-4CF2-9B4C-C3750A6607A5}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{399E6534-CFEB-4659-B774-88C482AD51C6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{648999BE-8DF6-4F23-946F-A6DF2BE26898}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{456BD486-1161-455C-80CD-348030911D87}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2E4A2D3D-52E7-4BF4-AAEE-E062E3330E22}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6F577B45-5AE0-41FF-9B03-0E4A4A5796E5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286C9DA0-B4F6-4464-BE35-C1406082DFE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2171CBB-7D2C-477B-A719-E671287253E5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2563,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D085BF-0BE9-4CFB-83A2-EFDD70D170EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32561A63-B6C1-48C8-9C38-969547DA9323}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAA2CFF-3B92-47E7-89BC-BB527D5C22EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F353017-440B-4D07-B324-B7FEBF764906}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -5017,7 +5017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209422A1-823C-4B47-8F58-E80D333A01C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DA028A-BE70-4626-A3F4-3317467A3608}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -6230,7 +6230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B6838-8EFC-4572-88D8-D8187220D13F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80BA2C3-88E7-4703-BCBC-8D65F47C6D97}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7494,7 +7494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B895E6-DA25-4DA4-B111-55D99A8C7562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F531D153-0302-4C27-BE72-28F6381CB940}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8758,7 +8758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F11050-C5D9-428B-97F3-D6DFB97F0D15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A18F5-41ED-40F9-B004-A873C9979314}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10022,7 +10022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECEF939-114E-4E28-AFA5-B28B9801AC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4866CF6-FC5D-4D2B-A4A9-651433B0152D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11286,7 +11286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3839F2B8-6778-4CB0-B222-DEAC197EBAE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB91971-D099-4872-92B2-DA47791B8DCA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12550,7 +12550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DB91EA-BE56-415A-81C3-4FFF55FF276F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA62AEAC-F0DD-44DB-9467-AA4AB2E35000}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13802,7 +13802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B426E03-190A-40FB-B186-B0D7900EA95B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6496F928-9203-4789-BC0E-5794A8EE5665}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15054,7 +15054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BB169E-D21D-4DAD-B9D5-4B4A74D72B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FBBC37-8F3A-4A49-BB7A-C671BD2877DF}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
